--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473648.4766006193</v>
+        <v>470989.0858988999</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11338326.8505845</v>
+        <v>11338326.85058451</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.77252752978472</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>65.77561886385415</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3694774742427</v>
+        <v>13.36947747424264</v>
       </c>
       <c r="H2" t="n">
-        <v>319.6758027219779</v>
+        <v>319.6758027219778</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>214.6330037351248</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1909921045651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>43.08712970246555</v>
       </c>
       <c r="G3" t="n">
         <v>136.3091318498218</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2633770715330908</v>
+        <v>102.245459762452</v>
       </c>
       <c r="I3" t="n">
-        <v>53.78292798254643</v>
+        <v>53.78292798254629</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.93520916873172</v>
+        <v>35.93520916873146</v>
       </c>
       <c r="S3" t="n">
-        <v>152.46991758541</v>
+        <v>152.4699175854099</v>
       </c>
       <c r="T3" t="n">
         <v>195.9954299974343</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1237854589683</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.04857142269704</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.54637954072479</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>208.9037734431248</v>
       </c>
       <c r="T4" t="n">
-        <v>75.04441960693956</v>
+        <v>224.2403064031859</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>134.7468699564857</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>328.1717142799594</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>171.2585873178091</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>29.36682762385502</v>
       </c>
       <c r="I6" t="n">
         <v>45.44580843958667</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>181.1549927081313</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.4614993736703</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>50.47962649984002</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>159.2508239713361</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>200.8794710641806</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>52.97582465110725</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>47.82814756577479</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>294.7617271758698</v>
+        <v>76.66276752108654</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.07607393666282</v>
+        <v>136.7254352278181</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833863</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>115.4764219077141</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.82863813027264</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>77.73359659137233</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>96.36494467178787</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>140.9144183062125</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983378</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>41.0268615655016</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>41.02686156550133</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>41.02686156550152</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>27.24739666248448</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695477</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>41.02686156550138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>74.99129529219145</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.696016498182</v>
+        <v>1250.870336945829</v>
       </c>
       <c r="C2" t="n">
-        <v>1542.696016498182</v>
+        <v>1184.430317891431</v>
       </c>
       <c r="D2" t="n">
         <v>1184.430317891431</v>
       </c>
       <c r="E2" t="n">
-        <v>798.6420652931871</v>
+        <v>798.642065293187</v>
       </c>
       <c r="F2" t="n">
-        <v>791.6965645439836</v>
+        <v>387.6561605035794</v>
       </c>
       <c r="G2" t="n">
-        <v>374.1516378023243</v>
+        <v>374.1516378023242</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,25 +4328,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>201.859189208671</v>
+        <v>201.8591892086717</v>
       </c>
       <c r="K2" t="n">
-        <v>391.4966057419065</v>
+        <v>359.9628099889409</v>
       </c>
       <c r="L2" t="n">
-        <v>873.604561890661</v>
+        <v>428.5861637327507</v>
       </c>
       <c r="M2" t="n">
-        <v>981.6307026794549</v>
+        <v>981.6307026794501</v>
       </c>
       <c r="N2" t="n">
-        <v>1528.992082910762</v>
+        <v>1528.992082910758</v>
       </c>
       <c r="O2" t="n">
-        <v>2000.66227509117</v>
+        <v>2000.662275091168</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.547488734045</v>
+        <v>2365.547488734044</v>
       </c>
       <c r="Q2" t="n">
         <v>2562.339328400155</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2345.538314526292</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.611053547059</v>
+        <v>2345.538314526292</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.548166203489</v>
+        <v>2014.475427182721</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.548166203489</v>
+        <v>2014.475427182721</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.082407942409</v>
+        <v>1641.009668921641</v>
       </c>
       <c r="Y2" t="n">
-        <v>1604.082407942409</v>
+        <v>1250.870336945829</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>872.6844575838018</v>
+        <v>872.6844575838022</v>
       </c>
       <c r="C3" t="n">
-        <v>698.2314283026748</v>
+        <v>698.2314283026752</v>
       </c>
       <c r="D3" t="n">
-        <v>549.2970186414235</v>
+        <v>549.297018641424</v>
       </c>
       <c r="E3" t="n">
-        <v>390.059563635968</v>
+        <v>390.0595636359685</v>
       </c>
       <c r="F3" t="n">
-        <v>243.525005662853</v>
+        <v>346.5372104011548</v>
       </c>
       <c r="G3" t="n">
-        <v>105.8390138953562</v>
+        <v>208.851218633658</v>
       </c>
       <c r="H3" t="n">
-        <v>105.5729764493632</v>
+        <v>105.572976449363</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>147.2571220995297</v>
+        <v>147.2571220995301</v>
       </c>
       <c r="K3" t="n">
-        <v>437.9749209389677</v>
+        <v>176.154336296516</v>
       </c>
       <c r="L3" t="n">
-        <v>890.2852745701205</v>
+        <v>616.2546643228021</v>
       </c>
       <c r="M3" t="n">
-        <v>1470.089344796866</v>
+        <v>1196.058734549549</v>
       </c>
       <c r="N3" t="n">
-        <v>1881.561061772225</v>
+        <v>1806.915506641799</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.036293344366</v>
+        <v>2299.314434297902</v>
       </c>
       <c r="P3" t="n">
-        <v>2362.22677576727</v>
+        <v>2362.226775767269</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2526.041137320628</v>
+        <v>2526.041137320629</v>
       </c>
       <c r="S3" t="n">
-        <v>2372.031119557588</v>
+        <v>2372.031119557589</v>
       </c>
       <c r="T3" t="n">
-        <v>2174.055937741998</v>
+        <v>2174.055937741999</v>
       </c>
       <c r="U3" t="n">
         <v>1945.901058534301</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.748950302558</v>
+        <v>1710.748950302559</v>
       </c>
       <c r="W3" t="n">
         <v>1456.511593574357</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569.2802619486721</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>400.3440790207652</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>400.3440790207652</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>252.4309854383721</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>252.4309854383721</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>83.61908093436375</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>83.61908093436375</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>83.61908093436375</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="K4" t="n">
-        <v>128.9446319797721</v>
+        <v>128.9446319797725</v>
       </c>
       <c r="L4" t="n">
-        <v>283.8975582778884</v>
+        <v>283.8975582778893</v>
       </c>
       <c r="M4" t="n">
-        <v>457.6628161503371</v>
+        <v>457.6628161503386</v>
       </c>
       <c r="N4" t="n">
-        <v>632.7309409968802</v>
+        <v>632.7309409968823</v>
       </c>
       <c r="O4" t="n">
-        <v>778.418394375279</v>
+        <v>778.4183943752815</v>
       </c>
       <c r="P4" t="n">
-        <v>879.5584967969137</v>
+        <v>879.5584967969165</v>
       </c>
       <c r="Q4" t="n">
-        <v>865.8752851396159</v>
+        <v>879.5584967969165</v>
       </c>
       <c r="R4" t="n">
-        <v>865.8752851396159</v>
+        <v>879.5584967969165</v>
       </c>
       <c r="S4" t="n">
-        <v>865.8752851396159</v>
+        <v>668.5445842281036</v>
       </c>
       <c r="T4" t="n">
-        <v>790.0728410922022</v>
+        <v>442.0392242248856</v>
       </c>
       <c r="U4" t="n">
-        <v>790.0728410922022</v>
+        <v>442.0392242248856</v>
       </c>
       <c r="V4" t="n">
-        <v>790.0728410922022</v>
+        <v>187.3547360189988</v>
       </c>
       <c r="W4" t="n">
-        <v>790.0728410922022</v>
+        <v>187.3547360189988</v>
       </c>
       <c r="X4" t="n">
-        <v>790.0728410922022</v>
+        <v>187.3547360189988</v>
       </c>
       <c r="Y4" t="n">
-        <v>569.2802619486721</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.209702072749</v>
+        <v>1451.955933830459</v>
       </c>
       <c r="C5" t="n">
-        <v>1253.209702072749</v>
+        <v>1451.955933830459</v>
       </c>
       <c r="D5" t="n">
-        <v>894.944003465999</v>
+        <v>1093.690235223708</v>
       </c>
       <c r="E5" t="n">
-        <v>509.1557508677548</v>
+        <v>707.9019826254641</v>
       </c>
       <c r="F5" t="n">
-        <v>502.2102501185513</v>
+        <v>700.9564818762607</v>
       </c>
       <c r="G5" t="n">
-        <v>489.1628723953828</v>
+        <v>369.4699017954936</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>322.4498401563318</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>875.263098402531</v>
+        <v>707.8574493821779</v>
       </c>
       <c r="M5" t="n">
-        <v>1408.952348998922</v>
+        <v>1031.960169548804</v>
       </c>
       <c r="N5" t="n">
-        <v>2036.260017058768</v>
+        <v>1659.267837608651</v>
       </c>
       <c r="O5" t="n">
         <v>2206.429042375728</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2233.135818858792</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>1979.444115603943</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="V5" t="n">
-        <v>1979.444115603943</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="W5" t="n">
-        <v>1626.675460333829</v>
+        <v>1838.555773894581</v>
       </c>
       <c r="X5" t="n">
-        <v>1253.209702072749</v>
+        <v>1838.555773894581</v>
       </c>
       <c r="Y5" t="n">
-        <v>1253.209702072749</v>
+        <v>1838.555773894581</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>126.8151058240048</v>
       </c>
       <c r="H6" t="n">
         <v>97.15164357768663</v>
@@ -4644,25 +4644,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>636.5640407464026</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>1270.743024525441</v>
+        <v>1321.943322269542</v>
       </c>
       <c r="N6" t="n">
-        <v>1904.92200830448</v>
+        <v>1956.122306048581</v>
       </c>
       <c r="O6" t="n">
-        <v>2064.434320973241</v>
+        <v>2115.634618717342</v>
       </c>
       <c r="P6" t="n">
-        <v>2488.402089454077</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,13 +4683,13 @@
         <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>193.6330489530394</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>193.6330489530394</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>193.6330489530394</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>193.6330489530394</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>193.6330489530394</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>193.6330489530394</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>193.6330489530394</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>1030.513286841822</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>823.0730020942276</v>
       </c>
       <c r="T7" t="n">
-        <v>1000.191946310338</v>
+        <v>823.0730020942276</v>
       </c>
       <c r="U7" t="n">
-        <v>711.0397698880174</v>
+        <v>533.9208256719073</v>
       </c>
       <c r="V7" t="n">
-        <v>711.0397698880174</v>
+        <v>279.2363374660205</v>
       </c>
       <c r="W7" t="n">
-        <v>421.6225998510567</v>
+        <v>279.2363374660205</v>
       </c>
       <c r="X7" t="n">
-        <v>193.6330489530394</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.6330489530394</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.246750862032</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C8" t="n">
-        <v>880.2842339216199</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0185353148695</v>
+        <v>1020.544708344027</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>634.7564557457824</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>223.7705509561749</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>212.1062047208678</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.894479532451</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>2025.985922901965</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>2025.985922901965</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.846590926153</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081668</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>420.5838509848378</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>251.6476680569309</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>251.6476680569309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063346</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W10" t="n">
-        <v>869.3659810263853</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X10" t="n">
-        <v>641.3764301283679</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y10" t="n">
-        <v>420.5838509848378</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1964.490382814045</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194422</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484045</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535299</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464065</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345381</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926745</v>
+        <v>3672.9046893774</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048274</v>
+        <v>3419.410747498928</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704703</v>
+        <v>3088.347860155357</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434588</v>
+        <v>2735.579204885243</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173509</v>
+        <v>2362.113446624163</v>
       </c>
       <c r="Y11" t="n">
-        <v>1964.490382814045</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>149.0987733726023</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>426.0346777902269</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>844.7317184481789</v>
+        <v>676.7125526339518</v>
       </c>
       <c r="M12" t="n">
-        <v>1352.688284404708</v>
+        <v>1184.66911859048</v>
       </c>
       <c r="N12" t="n">
-        <v>1888.497594105918</v>
+        <v>1720.47842829169</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.438638438442</v>
+        <v>2188.419472624213</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
         <v>2544.650348868987</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.0566881811108</v>
+        <v>227.6543053282564</v>
       </c>
       <c r="C13" t="n">
-        <v>781.1205052532039</v>
+        <v>227.6543053282564</v>
       </c>
       <c r="D13" t="n">
-        <v>631.0038658408681</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="E13" t="n">
-        <v>483.090772258475</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2008247605646</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648148</v>
+        <v>364.1690246648144</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.5788654344809</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
         <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925584</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1835.852134360025</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1546.760441309476</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.075953103589</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.658783066628</v>
+        <v>814.5429355999231</v>
       </c>
       <c r="X13" t="n">
-        <v>1002.658783066628</v>
+        <v>586.5533847019058</v>
       </c>
       <c r="Y13" t="n">
-        <v>1002.658783066628</v>
+        <v>365.7608055583756</v>
       </c>
     </row>
     <row r="14">
@@ -5282,22 +5282,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330918</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330918</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5440,10 +5440,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.27452942083</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443771</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5677,16 +5677,16 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630038</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413022</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.4004511715419</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,16 +6066,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>315.9123021921482</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
         <v>1540.888753373307</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133955</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6145,22 +6145,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246293</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967224</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>551.2636521843866</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E28" t="n">
-        <v>403.3505586019935</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797189</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396416</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,25 +6476,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,28 +6713,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622252</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343183</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219826</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395895</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>302.4540366416791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2579373565591</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622254</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219828</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395897</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>302.4540366416793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>135.2579373565593</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>135.2579373565593</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171296</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797186</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625877</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.896109690899</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473694</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7409,22 +7409,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,22 +7436,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>315.9123021921482</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536384</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257315</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133958</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310027</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7661,37 +7661,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.500769464728</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368211</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949678</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>165.7248701114812</v>
+        <v>133.8725511690901</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>358.5069861066232</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>277.9433287709376</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,13 +8222,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>350.4947856272559</v>
+        <v>138.7912195365843</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>260.0093486616224</v>
       </c>
       <c r="N6" t="n">
         <v>439.9214566933068</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>51.71747246878911</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>255.8421700460946</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>84.94186588374691</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.47621148018379</v>
+        <v>309.575171134967</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7559062452745</v>
+        <v>43.10654495411919</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>65.54986409393049</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393079</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>208.7894017452187</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>190.1580536648031</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>4.506629716718725</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393105</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>176.3785887617867</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823155</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>99.26785128072255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>40.23897475306401</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.9994244361434</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>73.6241777260209</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1125409.458690885</v>
+        <v>1125409.458690884</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940760.6700649913</v>
+        <v>940760.670064991</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1035821.298219893</v>
+        <v>1035821.298219894</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.8910303381</v>
+        <v>347979.8910303378</v>
       </c>
       <c r="F2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="G2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="H2" t="n">
-        <v>383394.6348527527</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678074.6944992426</v>
+        <v>678074.6944992444</v>
       </c>
       <c r="C3" t="n">
-        <v>102513.4470555636</v>
+        <v>102513.4470555618</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545781</v>
+        <v>313577.1573545771</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770428</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273103</v>
+        <v>81897.40371273072</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202338</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220641.3432238819</v>
+        <v>220641.3432238815</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7401.949902073128</v>
+        <v>7401.949902073127</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719674</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719675</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.36846171968</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719692</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719692</v>
-      </c>
       <c r="M4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.36846171971</v>
+        <v>7507.36846171973</v>
       </c>
       <c r="O4" t="n">
         <v>7507.36846171969</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719665</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83058.74367843161</v>
+        <v>83058.74367843167</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905218</v>
@@ -26476,7 +26476,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738574</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-591779.9407160212</v>
+        <v>-591779.9407160229</v>
       </c>
       <c r="C6" t="n">
-        <v>3655.822190766296</v>
+        <v>3655.822190767984</v>
       </c>
       <c r="D6" t="n">
         <v>-127741.8048240809</v>
       </c>
       <c r="E6" t="n">
-        <v>-58136.70129369889</v>
+        <v>-58357.83260767277</v>
       </c>
       <c r="F6" t="n">
-        <v>85456.46779669823</v>
+        <v>85421.7298712614</v>
       </c>
       <c r="G6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416904</v>
       </c>
       <c r="H6" t="n">
-        <v>274764.7365671259</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="I6" t="n">
-        <v>274764.7365671262</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="J6" t="n">
-        <v>107159.5587571434</v>
+        <v>107124.8208317079</v>
       </c>
       <c r="K6" t="n">
-        <v>274764.736567126</v>
+        <v>274729.9986416904</v>
       </c>
       <c r="L6" t="n">
-        <v>274764.736567126</v>
+        <v>274729.9986416904</v>
       </c>
       <c r="M6" t="n">
-        <v>192867.3328543951</v>
+        <v>192832.5949289596</v>
       </c>
       <c r="N6" t="n">
-        <v>224925.1624351027</v>
+        <v>224890.4245096668</v>
       </c>
       <c r="O6" t="n">
-        <v>274764.7365671262</v>
+        <v>274729.9986416904</v>
       </c>
       <c r="P6" t="n">
-        <v>274764.736567126</v>
+        <v>274729.9986416905</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719841</v>
+        <v>480.8984351719861</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26744,7 +26744,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490099</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719841</v>
+        <v>480.8984351719861</v>
       </c>
       <c r="C3" t="n">
-        <v>112.5776651660809</v>
+        <v>112.577665166079</v>
       </c>
       <c r="D3" t="n">
         <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>268.176345097412</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848971</v>
+        <v>328.63599184897</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489712</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506383</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321.9613141336959</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>299.4972729071534</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>135.9438818439017</v>
+        <v>135.9438818439014</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.42897189744254</v>
+        <v>28.42897189744204</v>
       </c>
       <c r="S2" t="n">
-        <v>164.9659064044098</v>
+        <v>164.9659064044096</v>
       </c>
       <c r="T2" t="n">
-        <v>214.6330037351249</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1909921045651</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>101.9820826909183</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>101.982082690919</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.1237854589683</v>
       </c>
       <c r="H4" t="n">
         <v>154.5170303828789</v>
       </c>
       <c r="I4" t="n">
-        <v>129.3715892953087</v>
+        <v>129.3715892953086</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>32.04857142269679</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.54637954072449</v>
       </c>
       <c r="R4" t="n">
-        <v>138.3012002237165</v>
+        <v>138.3012002237163</v>
       </c>
       <c r="S4" t="n">
-        <v>208.9037734431248</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>149.1958867962463</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2717278710641</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>83.83778339560911</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>84.74518966597742</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>41.39327579715689</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.53999045278843</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>70.53999045278835</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>108.711682294121</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>172.8932782209187</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>141.7677285910693</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>148.3614976532324</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>93.45813799546193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>146.8343127959627</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.933260040892397</v>
+        <v>1.933260040892405</v>
       </c>
       <c r="H2" t="n">
-        <v>19.79899939378927</v>
+        <v>19.79899939378935</v>
       </c>
       <c r="I2" t="n">
-        <v>74.53200772650422</v>
+        <v>74.53200772650452</v>
       </c>
       <c r="J2" t="n">
-        <v>164.0830293956912</v>
+        <v>164.0830293956919</v>
       </c>
       <c r="K2" t="n">
-        <v>245.9179269266665</v>
+        <v>245.9179269266674</v>
       </c>
       <c r="L2" t="n">
-        <v>305.0829339031272</v>
+        <v>305.0829339031284</v>
       </c>
       <c r="M2" t="n">
-        <v>339.4635471553474</v>
+        <v>339.4635471553487</v>
       </c>
       <c r="N2" t="n">
-        <v>344.956422246533</v>
+        <v>344.9564222465343</v>
       </c>
       <c r="O2" t="n">
-        <v>325.7325677149091</v>
+        <v>325.7325677149104</v>
       </c>
       <c r="P2" t="n">
-        <v>278.005210455378</v>
+        <v>278.0052104553791</v>
       </c>
       <c r="Q2" t="n">
-        <v>208.770335240919</v>
+        <v>208.7703352409198</v>
       </c>
       <c r="R2" t="n">
-        <v>121.4401460437071</v>
+        <v>121.4401460437076</v>
       </c>
       <c r="S2" t="n">
-        <v>44.05416318183554</v>
+        <v>44.05416318183572</v>
       </c>
       <c r="T2" t="n">
-        <v>8.462845829006472</v>
+        <v>8.462845829006506</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1546608032713917</v>
+        <v>0.1546608032713924</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.034385313388796</v>
+        <v>1.0343853133888</v>
       </c>
       <c r="H3" t="n">
-        <v>9.989984474044427</v>
+        <v>9.989984474044467</v>
       </c>
       <c r="I3" t="n">
-        <v>35.61370486886864</v>
+        <v>35.61370486886879</v>
       </c>
       <c r="J3" t="n">
-        <v>97.72672822678975</v>
+        <v>97.72672822679013</v>
       </c>
       <c r="K3" t="n">
-        <v>167.0305442238391</v>
+        <v>167.0305442238397</v>
       </c>
       <c r="L3" t="n">
-        <v>224.5931795583875</v>
+        <v>224.5931795583884</v>
       </c>
       <c r="M3" t="n">
-        <v>262.0896471687313</v>
+        <v>262.0896471687324</v>
       </c>
       <c r="N3" t="n">
-        <v>269.0263802572027</v>
+        <v>269.0263802572038</v>
       </c>
       <c r="O3" t="n">
-        <v>246.1065793657983</v>
+        <v>246.1065793657993</v>
       </c>
       <c r="P3" t="n">
-        <v>197.5222270803571</v>
+        <v>197.5222270803579</v>
       </c>
       <c r="Q3" t="n">
-        <v>132.0383778985418</v>
+        <v>132.0383778985423</v>
       </c>
       <c r="R3" t="n">
-        <v>64.22262498391142</v>
+        <v>64.22262498391167</v>
       </c>
       <c r="S3" t="n">
-        <v>19.21325351842784</v>
+        <v>19.21325351842792</v>
       </c>
       <c r="T3" t="n">
-        <v>4.169298697387295</v>
+        <v>4.169298697387312</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06805166535452609</v>
+        <v>0.06805166535452636</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8671938994904631</v>
+        <v>0.8671938994904665</v>
       </c>
       <c r="H4" t="n">
-        <v>7.710142124560669</v>
+        <v>7.7101421245607</v>
       </c>
       <c r="I4" t="n">
-        <v>26.07888563194957</v>
+        <v>26.07888563194968</v>
       </c>
       <c r="J4" t="n">
-        <v>61.31060869397574</v>
+        <v>61.31060869397599</v>
       </c>
       <c r="K4" t="n">
-        <v>100.7521639589829</v>
+        <v>100.7521639589833</v>
       </c>
       <c r="L4" t="n">
-        <v>128.9280821115185</v>
+        <v>128.928082111519</v>
       </c>
       <c r="M4" t="n">
-        <v>135.9365855355823</v>
+        <v>135.9365855355829</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7043173647543</v>
+        <v>132.7043173647549</v>
       </c>
       <c r="O4" t="n">
-        <v>122.5739159025248</v>
+        <v>122.5739159025253</v>
       </c>
       <c r="P4" t="n">
-        <v>104.8831603529192</v>
+        <v>104.8831603529197</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.6156637109696</v>
+        <v>72.6156637109699</v>
       </c>
       <c r="R4" t="n">
-        <v>38.99219115345299</v>
+        <v>38.99219115345315</v>
       </c>
       <c r="S4" t="n">
-        <v>15.11282459384743</v>
+        <v>15.11282459384749</v>
       </c>
       <c r="T4" t="n">
-        <v>3.705283025095614</v>
+        <v>3.705283025095629</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04730148542675259</v>
+        <v>0.04730148542675278</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>199.1215735926076</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>346.5700931427896</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821484</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.563237034051</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605175</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>386.7287743289961</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>451.7125911569009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,19 +33497,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,10 +34208,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>209.2370040367373</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>144.237359508534</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>152.1337400410787</v>
+        <v>152.1337400410794</v>
       </c>
       <c r="K2" t="n">
-        <v>191.5529459931671</v>
+        <v>159.700627050777</v>
       </c>
       <c r="L2" t="n">
-        <v>486.9777334835904</v>
+        <v>69.3165189331412</v>
       </c>
       <c r="M2" t="n">
-        <v>109.1173139280747</v>
+        <v>558.6308474209085</v>
       </c>
       <c r="N2" t="n">
-        <v>552.8902830619262</v>
+        <v>552.8902830619276</v>
       </c>
       <c r="O2" t="n">
-        <v>476.4345375559677</v>
+        <v>476.4345375559691</v>
       </c>
       <c r="P2" t="n">
-        <v>368.5709228715911</v>
+        <v>368.5709228715922</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.7796360263742</v>
+        <v>198.779636026375</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.98013690053189</v>
+        <v>96.98013690053227</v>
       </c>
       <c r="K3" t="n">
-        <v>293.6543422620587</v>
+        <v>29.18910524948075</v>
       </c>
       <c r="L3" t="n">
-        <v>456.8791450819725</v>
+        <v>444.5457858851375</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6606769967129</v>
+        <v>585.660676996714</v>
       </c>
       <c r="N3" t="n">
-        <v>415.627996944807</v>
+        <v>617.027042517424</v>
       </c>
       <c r="O3" t="n">
-        <v>103.5103349213539</v>
+        <v>497.3726541980844</v>
       </c>
       <c r="P3" t="n">
-        <v>382.010588305964</v>
+        <v>63.54781966602761</v>
       </c>
       <c r="Q3" t="n">
-        <v>202.1338915483693</v>
+        <v>202.1338915483699</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.48267213310002</v>
+        <v>78.48267213310042</v>
       </c>
       <c r="L4" t="n">
-        <v>156.5181073718346</v>
+        <v>156.5181073718352</v>
       </c>
       <c r="M4" t="n">
-        <v>175.5204624974229</v>
+        <v>175.5204624974234</v>
       </c>
       <c r="N4" t="n">
-        <v>176.8364897439829</v>
+        <v>176.8364897439835</v>
       </c>
       <c r="O4" t="n">
-        <v>147.1590438165645</v>
+        <v>147.1590438165649</v>
       </c>
       <c r="P4" t="n">
-        <v>102.1617196178127</v>
+        <v>102.1617196178131</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>83.39712583292157</v>
@@ -34942,13 +34942,13 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>539.0800511074656</v>
+        <v>327.376485016794</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>441.3197894238495</v>
       </c>
       <c r="N6" t="n">
         <v>640.5848321000389</v>
@@ -35033,7 +35033,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>74.68407974351334</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>553.5225306839449</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>451.8731981657875</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35267,7 +35267,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>72.28394692594092</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>208.0157133629154</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601301</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507177</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655356</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>244.1325298845517</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36841,10 +36841,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>313.1582113770268</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37145,19 +37145,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>71.39556506237828</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>6.395920534175024</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
